--- a/demonstrament/projects/001/development.aaa.xlsx
+++ b/demonstrament/projects/001/development.aaa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="VINE" sheetId="1" state="hidden" r:id="rId3"/>
     <sheet name="VERS" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="VIEW" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="VIEW" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">VINE!$N$4:$O$14</definedName>
@@ -22,6 +22,12 @@
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_COM" vbProcedure="false">VINE!$A$4:$W$15</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_FSElement" vbProcedure="false">VINE!$A$1:$W$15</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_SUP" vbProcedure="false">VINE!$A$1:$W$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="AREA" vbProcedure="false">VERS!$A$1:$T$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0" vbProcedure="false">VERS!$D$1:$I$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_1" vbProcedure="false">VERS!$M$1:$R$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">VERS!$A$4:$T$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_Javascript" vbProcedure="false">VERS!$A$1:$T$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_SUP" vbProcedure="false">VERS!$A$1:$T$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="77">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -169,6 +175,75 @@
   </si>
   <si>
     <t xml:space="preserve">ple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfc-demo-001-database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Patrick Welborn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">license</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devDependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:{}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^4.19.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.npmjs.com/package/express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mongoose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^8.4.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.npmjs.com/package/mongoose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^1.4.5-lts.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.npmjs.com/package/multer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfc-demo-001-devicebase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mvc-framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^1.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/thomaspatrickwelborn/MVC-Framework</t>
   </si>
   <si>
     <t xml:space="preserve">element</t>
@@ -206,7 +281,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -269,6 +344,12 @@
       <name val="FreeMono"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
     </font>
     <font>
       <b val="true"/>
@@ -347,12 +428,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF999999"/>
-        <bgColor rgb="FF808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFF6F9D4"/>
       </patternFill>
@@ -379,6 +454,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE994"/>
         <bgColor rgb="FFE8F2A1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
@@ -472,7 +553,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -538,20 +619,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -592,7 +659,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="92">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -661,48 +728,52 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -741,6 +812,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -777,6 +852,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -786,18 +865,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -821,6 +896,18 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -869,7 +956,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -881,11 +968,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="29" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="29" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="30" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="30" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -897,7 +984,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -921,15 +1008,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -937,7 +1024,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1126,8 +1213,8 @@
   </sheetPr>
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K5" activeCellId="1" sqref="D1:I22 K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1139,7 +1226,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="6.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="1" width="2.69"/>
   </cols>
@@ -1345,13 +1432,13 @@
       <c r="P5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="17" t="n">
+      <c r="Q5" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="R5" s="17" t="n">
+      <c r="R5" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="S5" s="17" t="n">
+      <c r="S5" s="28" t="n">
         <v>4</v>
       </c>
       <c r="T5" s="18"/>
@@ -1412,7 +1499,7 @@
         <f aca="false">ROW() - 4</f>
         <v>3</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="29" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -1445,13 +1532,13 @@
       <c r="P7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Q7" s="17" t="n">
+      <c r="Q7" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="R7" s="17" t="n">
+      <c r="R7" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="S7" s="17" t="n">
+      <c r="S7" s="28" t="n">
         <v>4</v>
       </c>
       <c r="T7" s="18"/>
@@ -1496,13 +1583,13 @@
       <c r="P8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" s="17" t="n">
+      <c r="Q8" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="R8" s="17" t="n">
+      <c r="R8" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="S8" s="17" t="n">
+      <c r="S8" s="28" t="n">
         <v>4</v>
       </c>
       <c r="T8" s="18"/>
@@ -1517,39 +1604,39 @@
         <v>5</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="L9" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="35" t="s">
+      <c r="M9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="36" t="s">
+      <c r="N9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="36" t="s">
+      <c r="O9" s="37" t="s">
         <v>23</v>
       </c>
       <c r="P9" s="16"/>
-      <c r="Q9" s="17" t="n">
+      <c r="Q9" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="R9" s="17" t="n">
+      <c r="R9" s="38" t="n">
         <v>5</v>
       </c>
-      <c r="S9" s="17" t="n">
+      <c r="S9" s="38" t="n">
         <v>5</v>
       </c>
       <c r="T9" s="18"/>
@@ -1641,13 +1728,13 @@
       <c r="P11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="17" t="n">
+      <c r="Q11" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="R11" s="17" t="n">
+      <c r="R11" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="S11" s="17" t="n">
+      <c r="S11" s="28" t="n">
         <v>4</v>
       </c>
       <c r="T11" s="18"/>
@@ -1662,39 +1749,39 @@
         <v>8</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="34" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="35" t="s">
+      <c r="M12" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="36" t="s">
+      <c r="N12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="36" t="s">
+      <c r="O12" s="37" t="s">
         <v>23</v>
       </c>
       <c r="P12" s="16"/>
-      <c r="Q12" s="17" t="n">
+      <c r="Q12" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="R12" s="17" t="n">
+      <c r="R12" s="38" t="n">
         <v>5</v>
       </c>
-      <c r="S12" s="17" t="n">
+      <c r="S12" s="38" t="n">
         <v>5</v>
       </c>
       <c r="T12" s="18"/>
@@ -1786,13 +1873,13 @@
       <c r="P14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="17" t="n">
+      <c r="Q14" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="R14" s="17" t="n">
+      <c r="R14" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="S14" s="17" t="n">
+      <c r="S14" s="28" t="n">
         <v>4</v>
       </c>
       <c r="T14" s="18"/>
@@ -1818,9 +1905,9 @@
       <c r="N15" s="27"/>
       <c r="O15" s="27"/>
       <c r="P15" s="16"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
       <c r="T15" s="18"/>
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
@@ -1829,33 +1916,33 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38" t="n">
+      <c r="B16" s="39"/>
+      <c r="C16" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="39" t="n">
+      <c r="D16" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="39" t="n">
+      <c r="E16" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="F16" s="39" t="n">
+      <c r="F16" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="39" t="n">
+      <c r="G16" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="H16" s="40" t="n">
+      <c r="H16" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="I16" s="40" t="n">
+      <c r="I16" s="42" t="n">
         <v>6</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="41"/>
+      <c r="N16" s="43"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -1863,12 +1950,12 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="41"/>
+      <c r="V16" s="43"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="42"/>
+      <c r="H21" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1901,163 +1988,753 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U12" activeCellId="0" sqref="U12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D1:I22 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="0" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="10" style="0" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="2.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="22.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="13" style="1" width="2.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="23.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="60.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="45" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="3"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="48"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="3"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="48"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="44" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="47" t="s">
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="45" t="s">
+      <c r="M3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="45" t="s">
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="48" t="s">
+      <c r="T3" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="48"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="6"/>
+      <c r="A4" s="6" t="n">
+        <f aca="false">VINE!$A$7</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="53" t="str">
+        <f aca="false">_xlfn.TEXTJOIN("/", 0, VINE!$C$7)</f>
+        <v>package.json</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
       <c r="N4" s="55"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="3"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="48"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="38" t="n">
+      <c r="A5" s="6"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="48"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <f aca="false">VINE!$A$14</f>
+        <v>10</v>
+      </c>
+      <c r="B6" s="53" t="str">
+        <f aca="false">_xlfn.TEXTJOIN("/", 0, VINE!$C$12,VINE!$D$14)</f>
+        <v>database/package.json</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="57"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="48"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="T7" s="58"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="48"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="57"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="T8" s="58"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="48"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="57"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="T9" s="58"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="48"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="57"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="T10" s="58"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="48"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="57"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="T11" s="58"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="57"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="T12" s="58"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="57"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="T13" s="58"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="48"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="n">
+        <f aca="false">VINE!$A$11</f>
+        <v>7</v>
+      </c>
+      <c r="B15" s="53" t="str">
+        <f aca="false">_xlfn.TEXTJOIN("/", 0, VINE!$C$9,VINE!$D$11)</f>
+        <v>devicebase/package.json</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="57"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="48"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="48"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="57"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="48"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="57"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="48"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="57"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="T19" s="58"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="48"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="57"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="48"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="48"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="39" t="n">
+      <c r="E23" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="39" t="n">
+      <c r="F23" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="39" t="n">
+      <c r="G23" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="39" t="n">
+      <c r="H23" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="40" t="n">
+      <c r="I23" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:K1"/>
-    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L1:T1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:K2"/>
-    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L2:T2"/>
     <mergeCell ref="D3:I3"/>
+    <mergeCell ref="M3:R3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2077,456 +2754,456 @@
   <dimension ref="A1:AU6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:I22 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="4" style="0" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="14" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="19" style="0" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="40" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="4" style="1" width="2.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="14" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="19" style="1" width="2.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="40" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="7.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="45" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
       <c r="AU1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="45" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS2" s="59"/>
-      <c r="AT2" s="59"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="63"/>
+      <c r="AQ2" s="63"/>
+      <c r="AR2" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64"/>
       <c r="AU2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="60" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="47" t="s">
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="45" t="s">
+      <c r="N3" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="45" t="s">
+      <c r="O3" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="45" t="s">
+      <c r="P3" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="48" t="s">
+      <c r="Q3" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="62" t="s">
+      <c r="R3" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="58" t="s">
+      <c r="S3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="59" t="n">
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59" t="n">
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64" t="n">
         <v>1</v>
       </c>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59" t="n">
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64" t="n">
         <v>2</v>
       </c>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59" t="n">
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59" t="n">
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64"/>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="59"/>
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="64"/>
       <c r="AU3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC4" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD4" s="58" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC4" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="AE4" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF4" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG4" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH4" s="58" t="s">
+      <c r="AE4" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF4" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG4" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="AI4" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ4" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK4" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL4" s="58" t="s">
+      <c r="AI4" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ4" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK4" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="AM4" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN4" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO4" s="58" t="s">
+      <c r="AM4" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN4" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO4" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="AP4" s="58" t="s">
+      <c r="AP4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="AQ4" s="58" t="s">
+      <c r="AQ4" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="AR4" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS4" s="58" t="s">
+      <c r="AR4" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="AT4" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU4" s="63"/>
+      <c r="AT4" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU4" s="68"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="75"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="74"/>
-      <c r="AF5" s="76"/>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="77"/>
-      <c r="AI5" s="74"/>
-      <c r="AJ5" s="76"/>
-      <c r="AK5" s="74"/>
-      <c r="AL5" s="77"/>
-      <c r="AM5" s="74"/>
-      <c r="AN5" s="76"/>
-      <c r="AO5" s="74"/>
-      <c r="AP5" s="77"/>
-      <c r="AQ5" s="74"/>
-      <c r="AR5" s="78"/>
-      <c r="AS5" s="79"/>
-      <c r="AT5" s="80"/>
-      <c r="AU5" s="63"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="81"/>
+      <c r="AC5" s="79"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="79"/>
+      <c r="AF5" s="81"/>
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="79"/>
+      <c r="AJ5" s="81"/>
+      <c r="AK5" s="79"/>
+      <c r="AL5" s="82"/>
+      <c r="AM5" s="79"/>
+      <c r="AN5" s="81"/>
+      <c r="AO5" s="79"/>
+      <c r="AP5" s="82"/>
+      <c r="AQ5" s="79"/>
+      <c r="AR5" s="83"/>
+      <c r="AS5" s="84"/>
+      <c r="AT5" s="85"/>
+      <c r="AU5" s="68"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="82" t="n">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="82" t="n">
+      <c r="E6" s="87" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="82" t="n">
+      <c r="F6" s="87" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="82" t="n">
+      <c r="G6" s="87" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="82" t="n">
+      <c r="H6" s="87" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="82" t="n">
+      <c r="I6" s="87" t="n">
         <v>5</v>
       </c>
-      <c r="J6" s="82" t="n">
+      <c r="J6" s="87" t="n">
         <v>6</v>
       </c>
-      <c r="K6" s="82" t="n">
+      <c r="K6" s="87" t="n">
         <v>7</v>
       </c>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="82" t="n">
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="T6" s="82" t="n">
+      <c r="T6" s="87" t="n">
         <v>1</v>
       </c>
-      <c r="U6" s="82" t="n">
+      <c r="U6" s="87" t="n">
         <v>2</v>
       </c>
-      <c r="V6" s="82" t="n">
+      <c r="V6" s="87" t="n">
         <v>3</v>
       </c>
-      <c r="W6" s="82" t="n">
+      <c r="W6" s="87" t="n">
         <v>4</v>
       </c>
-      <c r="X6" s="82" t="n">
+      <c r="X6" s="87" t="n">
         <v>5</v>
       </c>
-      <c r="Y6" s="82" t="n">
+      <c r="Y6" s="87" t="n">
         <v>6</v>
       </c>
-      <c r="Z6" s="82" t="n">
+      <c r="Z6" s="87" t="n">
         <v>7</v>
       </c>
-      <c r="AA6" s="82" t="n">
+      <c r="AA6" s="87" t="n">
         <v>8</v>
       </c>
-      <c r="AB6" s="63"/>
-      <c r="AC6" s="63"/>
-      <c r="AD6" s="63"/>
-      <c r="AE6" s="86"/>
-      <c r="AF6" s="63"/>
-      <c r="AG6" s="63"/>
-      <c r="AH6" s="63"/>
-      <c r="AI6" s="86"/>
-      <c r="AJ6" s="63"/>
-      <c r="AK6" s="63"/>
-      <c r="AL6" s="63"/>
-      <c r="AM6" s="86"/>
-      <c r="AN6" s="63"/>
-      <c r="AO6" s="63"/>
-      <c r="AP6" s="63"/>
-      <c r="AQ6" s="86"/>
-      <c r="AR6" s="85"/>
-      <c r="AS6" s="63"/>
-      <c r="AT6" s="86"/>
-      <c r="AU6" s="63"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="91"/>
+      <c r="AF6" s="68"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="68"/>
+      <c r="AI6" s="91"/>
+      <c r="AJ6" s="68"/>
+      <c r="AK6" s="68"/>
+      <c r="AL6" s="68"/>
+      <c r="AM6" s="91"/>
+      <c r="AN6" s="68"/>
+      <c r="AO6" s="68"/>
+      <c r="AP6" s="68"/>
+      <c r="AQ6" s="91"/>
+      <c r="AR6" s="90"/>
+      <c r="AS6" s="68"/>
+      <c r="AT6" s="91"/>
+      <c r="AU6" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="28">

--- a/demonstrament/projects/001/development.aaa.xlsx
+++ b/demonstrament/projects/001/development.aaa.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="VINE" sheetId="1" state="hidden" r:id="rId3"/>
-    <sheet name="VERS" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="VERS" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="VIEW" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -281,7 +281,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -344,12 +344,6 @@
       <name val="FreeMono"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="FreeMono"/>
-      <family val="3"/>
     </font>
     <font>
       <b val="true"/>
@@ -659,7 +653,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -904,10 +898,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -956,7 +946,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -968,11 +958,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="29" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="29" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="30" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="30" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1012,11 +1002,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1024,7 +1014,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1213,8 +1203,8 @@
   </sheetPr>
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="1" sqref="D1:I22 K5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L1:L15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1990,8 +1980,8 @@
   </sheetPr>
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D1:I22 C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="L1:L15 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2313,7 +2303,7 @@
       <c r="P10" s="55"/>
       <c r="Q10" s="55"/>
       <c r="R10" s="56"/>
-      <c r="S10" s="61" t="s">
+      <c r="S10" s="60" t="s">
         <v>47</v>
       </c>
       <c r="T10" s="58"/>
@@ -2589,7 +2579,7 @@
       <c r="P19" s="55"/>
       <c r="Q19" s="55"/>
       <c r="R19" s="56"/>
-      <c r="S19" s="61" t="s">
+      <c r="S19" s="60" t="s">
         <v>47</v>
       </c>
       <c r="T19" s="58"/>
@@ -2754,7 +2744,7 @@
   <dimension ref="A1:AU6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:I22 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L1:L15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2766,28 +2756,28 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="14" style="1" width="4.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="19" style="1" width="2.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="40" style="1" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="7.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="61"/>
       <c r="C1" s="50" t="s">
         <v>37</v>
       </c>
@@ -2807,46 +2797,46 @@
       <c r="O1" s="47"/>
       <c r="P1" s="47"/>
       <c r="Q1" s="47"/>
-      <c r="R1" s="63" t="s">
+      <c r="R1" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63" t="s">
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
       <c r="AU1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="50" t="s">
@@ -2868,49 +2858,49 @@
       <c r="O2" s="47"/>
       <c r="P2" s="47"/>
       <c r="Q2" s="47"/>
-      <c r="R2" s="64" t="s">
+      <c r="R2" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="63" t="s">
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63" t="s">
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="62"/>
+      <c r="AN2" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="63"/>
-      <c r="AQ2" s="63"/>
-      <c r="AR2" s="64" t="s">
+      <c r="AO2" s="62"/>
+      <c r="AP2" s="62"/>
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="63"/>
       <c r="AU2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="65" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="64" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="46" t="s">
@@ -2926,7 +2916,7 @@
       <c r="L3" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="66" t="s">
+      <c r="M3" s="65" t="s">
         <v>44</v>
       </c>
       <c r="N3" s="47" t="s">
@@ -2941,55 +2931,55 @@
       <c r="Q3" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="67" t="s">
+      <c r="R3" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="63" t="s">
+      <c r="S3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="64" t="n">
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64" t="n">
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63" t="n">
         <v>1</v>
       </c>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64" t="n">
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63" t="n">
         <v>2</v>
       </c>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64" t="n">
+      <c r="AK3" s="63"/>
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="AO3" s="64"/>
-      <c r="AP3" s="64"/>
-      <c r="AQ3" s="64"/>
-      <c r="AR3" s="64" t="n">
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="AS3" s="64"/>
-      <c r="AT3" s="64"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="63"/>
       <c r="AU3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="65"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
@@ -2999,211 +2989,211 @@
       <c r="J4" s="46"/>
       <c r="K4" s="46"/>
       <c r="L4" s="50"/>
-      <c r="M4" s="66"/>
+      <c r="M4" s="65"/>
       <c r="N4" s="47"/>
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="52"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63" t="s">
+      <c r="R4" s="66"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="AC4" s="63" t="s">
+      <c r="AC4" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="AD4" s="63" t="s">
+      <c r="AD4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AE4" s="63" t="s">
+      <c r="AE4" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="AF4" s="63" t="s">
+      <c r="AF4" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="AG4" s="63" t="s">
+      <c r="AG4" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="AH4" s="63" t="s">
+      <c r="AH4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AI4" s="63" t="s">
+      <c r="AI4" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="AJ4" s="63" t="s">
+      <c r="AJ4" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="AK4" s="63" t="s">
+      <c r="AK4" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="AL4" s="63" t="s">
+      <c r="AL4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AM4" s="63" t="s">
+      <c r="AM4" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="AN4" s="63" t="s">
+      <c r="AN4" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="AO4" s="63" t="s">
+      <c r="AO4" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="AP4" s="63" t="s">
+      <c r="AP4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AQ4" s="63" t="s">
+      <c r="AQ4" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="AR4" s="67" t="s">
+      <c r="AR4" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="AS4" s="63" t="s">
+      <c r="AS4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AT4" s="63" t="s">
+      <c r="AT4" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="AU4" s="68"/>
+      <c r="AU4" s="67"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="81"/>
-      <c r="AC5" s="79"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="79"/>
-      <c r="AF5" s="81"/>
-      <c r="AG5" s="79"/>
-      <c r="AH5" s="82"/>
-      <c r="AI5" s="79"/>
-      <c r="AJ5" s="81"/>
-      <c r="AK5" s="79"/>
-      <c r="AL5" s="82"/>
-      <c r="AM5" s="79"/>
-      <c r="AN5" s="81"/>
-      <c r="AO5" s="79"/>
-      <c r="AP5" s="82"/>
-      <c r="AQ5" s="79"/>
-      <c r="AR5" s="83"/>
-      <c r="AS5" s="84"/>
-      <c r="AT5" s="85"/>
-      <c r="AU5" s="68"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="78"/>
+      <c r="AD5" s="81"/>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="80"/>
+      <c r="AG5" s="78"/>
+      <c r="AH5" s="81"/>
+      <c r="AI5" s="78"/>
+      <c r="AJ5" s="80"/>
+      <c r="AK5" s="78"/>
+      <c r="AL5" s="81"/>
+      <c r="AM5" s="78"/>
+      <c r="AN5" s="80"/>
+      <c r="AO5" s="78"/>
+      <c r="AP5" s="81"/>
+      <c r="AQ5" s="78"/>
+      <c r="AR5" s="82"/>
+      <c r="AS5" s="83"/>
+      <c r="AT5" s="84"/>
+      <c r="AU5" s="67"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87" t="n">
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="87" t="n">
+      <c r="E6" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="87" t="n">
+      <c r="F6" s="86" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="87" t="n">
+      <c r="G6" s="86" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="87" t="n">
+      <c r="H6" s="86" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="87" t="n">
+      <c r="I6" s="86" t="n">
         <v>5</v>
       </c>
-      <c r="J6" s="87" t="n">
+      <c r="J6" s="86" t="n">
         <v>6</v>
       </c>
-      <c r="K6" s="87" t="n">
+      <c r="K6" s="86" t="n">
         <v>7</v>
       </c>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="87" t="n">
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="T6" s="87" t="n">
+      <c r="T6" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="U6" s="87" t="n">
+      <c r="U6" s="86" t="n">
         <v>2</v>
       </c>
-      <c r="V6" s="87" t="n">
+      <c r="V6" s="86" t="n">
         <v>3</v>
       </c>
-      <c r="W6" s="87" t="n">
+      <c r="W6" s="86" t="n">
         <v>4</v>
       </c>
-      <c r="X6" s="87" t="n">
+      <c r="X6" s="86" t="n">
         <v>5</v>
       </c>
-      <c r="Y6" s="87" t="n">
+      <c r="Y6" s="86" t="n">
         <v>6</v>
       </c>
-      <c r="Z6" s="87" t="n">
+      <c r="Z6" s="86" t="n">
         <v>7</v>
       </c>
-      <c r="AA6" s="87" t="n">
+      <c r="AA6" s="86" t="n">
         <v>8</v>
       </c>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="91"/>
-      <c r="AF6" s="68"/>
-      <c r="AG6" s="68"/>
-      <c r="AH6" s="68"/>
-      <c r="AI6" s="91"/>
-      <c r="AJ6" s="68"/>
-      <c r="AK6" s="68"/>
-      <c r="AL6" s="68"/>
-      <c r="AM6" s="91"/>
-      <c r="AN6" s="68"/>
-      <c r="AO6" s="68"/>
-      <c r="AP6" s="68"/>
-      <c r="AQ6" s="91"/>
-      <c r="AR6" s="90"/>
-      <c r="AS6" s="68"/>
-      <c r="AT6" s="91"/>
-      <c r="AU6" s="68"/>
+      <c r="AB6" s="67"/>
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="67"/>
+      <c r="AE6" s="90"/>
+      <c r="AF6" s="67"/>
+      <c r="AG6" s="67"/>
+      <c r="AH6" s="67"/>
+      <c r="AI6" s="90"/>
+      <c r="AJ6" s="67"/>
+      <c r="AK6" s="67"/>
+      <c r="AL6" s="67"/>
+      <c r="AM6" s="90"/>
+      <c r="AN6" s="67"/>
+      <c r="AO6" s="67"/>
+      <c r="AP6" s="67"/>
+      <c r="AQ6" s="90"/>
+      <c r="AR6" s="89"/>
+      <c r="AS6" s="67"/>
+      <c r="AT6" s="90"/>
+      <c r="AU6" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="28">

--- a/demonstrament/projects/001/development.aaa.xlsx
+++ b/demonstrament/projects/001/development.aaa.xlsx
@@ -51,16 +51,16 @@
     <definedName function="false" hidden="false" localSheetId="3" name="MOD_0" vbProcedure="false">VERS_2_Database!$A$1:$AT$7</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="MOD_0_COM" vbProcedure="false">VERS_2_Database!$A$5:$AT$7</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="MOD_0_SUP" vbProcedure="false">VERS_2_Database!$A$1:$AT$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="AREA" vbProcedure="false">VIEW_0_Docubase!$A$1:$BD$28</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="AREA" vbProcedure="false">VIEW_0_Docubase!$A$1:$AV$28</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="LMN_0" vbProcedure="false">VIEW_0_Docubase!$F$1:$P$28</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="LMN_0_SUBSET" vbProcedure="false">VIEW_0_Docubase!$D$1:$D$28</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="LMN_0_SUPSET" vbProcedure="false">VIEW_0_Docubase!$C$1:$C$28</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="LMN_1" vbProcedure="false">VIEW_0_Docubase!$Z$1:$AJ$28</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="LMN_1_SUBSET" vbProcedure="false">VIEW_0_Docubase!$D$1:$D$28</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="LMN_1_SUPSET" vbProcedure="false">VIEW_0_Docubase!$C$1:$C$28</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="MOD_0" vbProcedure="false">VIEW_0_Docubase!$A$1:$BD$28</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="MOD_0_COM" vbProcedure="false">VIEW_0_Docubase!$A$5:$BD$28</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="MOD_0_SUP" vbProcedure="false">VIEW_0_Docubase!$A$1:$BD$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="MOD_0" vbProcedure="false">VIEW_0_Docubase!$A$1:$AV$28</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="MOD_0_COM" vbProcedure="false">VIEW_0_Docubase!$A$5:$AV$28</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="MOD_0_SUP" vbProcedure="false">VIEW_0_Docubase!$A$1:$AV$4</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="AREA" vbProcedure="false">VERS_0_Docubase!$A$1:$AC$12</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="LMN_0" vbProcedure="false">VERS_0_Docubase!$F$1:$M$12</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="LMN_0_SUBSET" vbProcedure="false">VERS_0_Docubase!$D$1:$D$12</definedName>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="252">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -827,12 +827,6 @@
   </si>
   <si>
     <t xml:space="preserve">stylesheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">href</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%= $link.href %&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">body</t>
@@ -2344,7 +2338,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="K1" activeCellId="1" sqref="AU2:AU4 K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -7051,7 +7045,7 @@
   <dimension ref="A1:Y58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="AU2:AU4 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -8729,7 +8723,7 @@
   <dimension ref="A1:AV72"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G65" activeCellId="0" sqref="G65"/>
+      <selection pane="topLeft" activeCell="G65" activeCellId="1" sqref="AU2:AU4 G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12778,7 +12772,7 @@
   <dimension ref="A1:AU60"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U60" activeCellId="0" sqref="U60"/>
+      <selection pane="topLeft" activeCell="U60" activeCellId="1" sqref="AU2:AU4 U60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13416,10 +13410,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BE36"/>
+  <dimension ref="A1:AW36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V44" activeCellId="0" sqref="V44"/>
+      <selection pane="topLeft" activeCell="AU2" activeCellId="0" sqref="AU2:AU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13446,18 +13440,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="37" style="1" width="4.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="24.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="25.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="7.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="43" style="1" width="5.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="7.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="5.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="106" width="7.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="103" width="10.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="103" width="8.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="103" width="15.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="52" style="103" width="8.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="106" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="5.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="5.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="106" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="103" width="10.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="103" width="8.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="103" width="15.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="106" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="9.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13513,29 +13504,21 @@
         <v>140</v>
       </c>
       <c r="AN1" s="109"/>
-      <c r="AO1" s="109"/>
-      <c r="AP1" s="109"/>
-      <c r="AQ1" s="109"/>
-      <c r="AR1" s="109"/>
-      <c r="AS1" s="110" t="s">
+      <c r="AO1" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="AT1" s="110"/>
-      <c r="AU1" s="110"/>
-      <c r="AV1" s="110"/>
-      <c r="AW1" s="111" t="s">
+      <c r="AP1" s="110"/>
+      <c r="AQ1" s="110"/>
+      <c r="AR1" s="110"/>
+      <c r="AS1" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="AX1" s="112" t="s">
+      <c r="AT1" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="AY1" s="112"/>
-      <c r="AZ1" s="112"/>
-      <c r="BA1" s="112"/>
-      <c r="BB1" s="112"/>
-      <c r="BC1" s="112"/>
-      <c r="BD1" s="165"/>
-      <c r="BE1" s="166"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="165"/>
+      <c r="AW1" s="166"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="107" t="s">
@@ -13594,33 +13577,23 @@
         <v>143</v>
       </c>
       <c r="AN2" s="109"/>
-      <c r="AO2" s="109"/>
-      <c r="AP2" s="109"/>
-      <c r="AQ2" s="109"/>
-      <c r="AR2" s="109"/>
-      <c r="AS2" s="110" t="s">
+      <c r="AO2" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="AT2" s="110"/>
-      <c r="AU2" s="110"/>
-      <c r="AV2" s="110"/>
-      <c r="AW2" s="115" t="s">
+      <c r="AP2" s="110"/>
+      <c r="AQ2" s="110"/>
+      <c r="AR2" s="110"/>
+      <c r="AS2" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="AX2" s="112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="112"/>
-      <c r="AZ2" s="112" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" s="112"/>
-      <c r="BB2" s="112" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC2" s="112"/>
-      <c r="BD2" s="167"/>
-      <c r="BE2" s="166"/>
+      <c r="AT2" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU2" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV2" s="167"/>
+      <c r="AW2" s="166"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="107"/>
@@ -13685,47 +13658,31 @@
         <v>99</v>
       </c>
       <c r="AL3" s="119"/>
-      <c r="AM3" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="120"/>
-      <c r="AO3" s="120" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="120"/>
-      <c r="AQ3" s="120" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR3" s="120"/>
-      <c r="AS3" s="121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="121"/>
-      <c r="AU3" s="121"/>
-      <c r="AV3" s="121"/>
-      <c r="AW3" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="122" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY3" s="112" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ3" s="122" t="s">
-        <v>21</v>
-      </c>
-      <c r="BA3" s="112" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB3" s="122" t="s">
-        <v>21</v>
-      </c>
-      <c r="BC3" s="112" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD3" s="167"/>
-      <c r="BE3" s="166"/>
+      <c r="AM3" s="109" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN3" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO3" s="110" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP3" s="110" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ3" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR3" s="110" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS3" s="111" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT3" s="122"/>
+      <c r="AU3" s="112"/>
+      <c r="AV3" s="167"/>
+      <c r="AW3" s="166"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="107"/>
@@ -13774,47 +13731,17 @@
       <c r="AL4" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="AM4" s="109" t="s">
-        <v>146</v>
-      </c>
-      <c r="AN4" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO4" s="109" t="s">
-        <v>146</v>
-      </c>
-      <c r="AP4" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ4" s="109" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR4" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS4" s="110" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT4" s="110" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU4" s="110" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV4" s="110" t="s">
-        <v>148</v>
-      </c>
-      <c r="AW4" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX4" s="122"/>
-      <c r="AY4" s="112"/>
-      <c r="AZ4" s="122"/>
-      <c r="BA4" s="112"/>
-      <c r="BB4" s="122"/>
-      <c r="BC4" s="112"/>
-      <c r="BD4" s="165"/>
-      <c r="BE4" s="166"/>
+      <c r="AM4" s="109"/>
+      <c r="AN4" s="109"/>
+      <c r="AO4" s="110"/>
+      <c r="AP4" s="110"/>
+      <c r="AQ4" s="110"/>
+      <c r="AR4" s="110"/>
+      <c r="AS4" s="111"/>
+      <c r="AT4" s="122"/>
+      <c r="AU4" s="112"/>
+      <c r="AV4" s="165"/>
+      <c r="AW4" s="166"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="124" t="n">
@@ -13869,16 +13796,8 @@
       <c r="AS5" s="126"/>
       <c r="AT5" s="126"/>
       <c r="AU5" s="126"/>
-      <c r="AV5" s="126"/>
-      <c r="AW5" s="126"/>
-      <c r="AX5" s="126"/>
-      <c r="AY5" s="126"/>
-      <c r="AZ5" s="126"/>
-      <c r="BA5" s="126"/>
-      <c r="BB5" s="126"/>
-      <c r="BC5" s="126"/>
-      <c r="BD5" s="165"/>
-      <c r="BE5" s="166"/>
+      <c r="AV5" s="165"/>
+      <c r="AW5" s="166"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="128"/>
@@ -13933,23 +13852,15 @@
       <c r="AN6" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="AO6" s="137"/>
-      <c r="AP6" s="138"/>
-      <c r="AQ6" s="137"/>
-      <c r="AR6" s="138"/>
-      <c r="AS6" s="139"/>
-      <c r="AT6" s="45"/>
-      <c r="AU6" s="140"/>
-      <c r="AV6" s="45"/>
-      <c r="AW6" s="141"/>
-      <c r="AX6" s="144"/>
-      <c r="AY6" s="145"/>
-      <c r="AZ6" s="144"/>
-      <c r="BA6" s="145"/>
-      <c r="BB6" s="144"/>
-      <c r="BC6" s="145"/>
-      <c r="BD6" s="165"/>
-      <c r="BE6" s="166"/>
+      <c r="AO6" s="139"/>
+      <c r="AP6" s="45"/>
+      <c r="AQ6" s="140"/>
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="141"/>
+      <c r="AT6" s="144"/>
+      <c r="AU6" s="145"/>
+      <c r="AV6" s="165"/>
+      <c r="AW6" s="166"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="128"/>
@@ -14006,23 +13917,15 @@
       <c r="AN7" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="AO7" s="137"/>
-      <c r="AP7" s="138"/>
-      <c r="AQ7" s="137"/>
-      <c r="AR7" s="138"/>
-      <c r="AS7" s="139"/>
-      <c r="AT7" s="45"/>
-      <c r="AU7" s="140"/>
-      <c r="AV7" s="45"/>
-      <c r="AW7" s="141"/>
-      <c r="AX7" s="144"/>
-      <c r="AY7" s="145"/>
-      <c r="AZ7" s="144"/>
-      <c r="BA7" s="145"/>
-      <c r="BB7" s="144"/>
-      <c r="BC7" s="145"/>
-      <c r="BD7" s="165"/>
-      <c r="BE7" s="166"/>
+      <c r="AO7" s="139"/>
+      <c r="AP7" s="45"/>
+      <c r="AQ7" s="140"/>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="141"/>
+      <c r="AT7" s="144"/>
+      <c r="AU7" s="145"/>
+      <c r="AV7" s="165"/>
+      <c r="AW7" s="166"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="128"/>
@@ -14075,23 +13978,15 @@
       </c>
       <c r="AM8" s="137"/>
       <c r="AN8" s="16"/>
-      <c r="AO8" s="137"/>
-      <c r="AP8" s="138"/>
-      <c r="AQ8" s="137"/>
-      <c r="AR8" s="138"/>
-      <c r="AS8" s="139"/>
-      <c r="AT8" s="45"/>
-      <c r="AU8" s="140"/>
-      <c r="AV8" s="45"/>
-      <c r="AW8" s="141"/>
-      <c r="AX8" s="144"/>
-      <c r="AY8" s="145"/>
-      <c r="AZ8" s="144"/>
-      <c r="BA8" s="145"/>
-      <c r="BB8" s="144"/>
-      <c r="BC8" s="145"/>
-      <c r="BD8" s="165"/>
-      <c r="BE8" s="166"/>
+      <c r="AO8" s="139"/>
+      <c r="AP8" s="45"/>
+      <c r="AQ8" s="140"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="141"/>
+      <c r="AT8" s="144"/>
+      <c r="AU8" s="145"/>
+      <c r="AV8" s="165"/>
+      <c r="AW8" s="166"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="128"/>
@@ -14144,23 +14039,15 @@
       </c>
       <c r="AM9" s="137"/>
       <c r="AN9" s="16"/>
-      <c r="AO9" s="137"/>
-      <c r="AP9" s="138"/>
-      <c r="AQ9" s="137"/>
-      <c r="AR9" s="138"/>
-      <c r="AS9" s="139"/>
-      <c r="AT9" s="45"/>
-      <c r="AU9" s="140"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="141"/>
-      <c r="AX9" s="144"/>
-      <c r="AY9" s="145"/>
-      <c r="AZ9" s="144"/>
-      <c r="BA9" s="145"/>
-      <c r="BB9" s="144"/>
-      <c r="BC9" s="145"/>
-      <c r="BD9" s="165"/>
-      <c r="BE9" s="166"/>
+      <c r="AO9" s="139"/>
+      <c r="AP9" s="45"/>
+      <c r="AQ9" s="140"/>
+      <c r="AR9" s="45"/>
+      <c r="AS9" s="141"/>
+      <c r="AT9" s="144"/>
+      <c r="AU9" s="145"/>
+      <c r="AV9" s="165"/>
+      <c r="AW9" s="166"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="128"/>
@@ -14213,23 +14100,15 @@
       <c r="AL10" s="136"/>
       <c r="AM10" s="137"/>
       <c r="AN10" s="16"/>
-      <c r="AO10" s="137"/>
-      <c r="AP10" s="138"/>
-      <c r="AQ10" s="137"/>
-      <c r="AR10" s="138"/>
-      <c r="AS10" s="139"/>
-      <c r="AT10" s="45"/>
-      <c r="AU10" s="140"/>
-      <c r="AV10" s="45"/>
-      <c r="AW10" s="141"/>
-      <c r="AX10" s="144"/>
-      <c r="AY10" s="145"/>
-      <c r="AZ10" s="144"/>
-      <c r="BA10" s="145"/>
-      <c r="BB10" s="144"/>
-      <c r="BC10" s="145"/>
-      <c r="BD10" s="165"/>
-      <c r="BE10" s="166"/>
+      <c r="AO10" s="139"/>
+      <c r="AP10" s="45"/>
+      <c r="AQ10" s="140"/>
+      <c r="AR10" s="45"/>
+      <c r="AS10" s="141"/>
+      <c r="AT10" s="144"/>
+      <c r="AU10" s="145"/>
+      <c r="AV10" s="165"/>
+      <c r="AW10" s="166"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="128"/>
@@ -14284,23 +14163,15 @@
       <c r="AL11" s="136"/>
       <c r="AM11" s="137"/>
       <c r="AN11" s="16"/>
-      <c r="AO11" s="137"/>
-      <c r="AP11" s="138"/>
-      <c r="AQ11" s="137"/>
-      <c r="AR11" s="138"/>
-      <c r="AS11" s="139"/>
-      <c r="AT11" s="45"/>
-      <c r="AU11" s="140"/>
-      <c r="AV11" s="45"/>
-      <c r="AW11" s="141"/>
-      <c r="AX11" s="144"/>
-      <c r="AY11" s="145"/>
-      <c r="AZ11" s="144"/>
-      <c r="BA11" s="145"/>
-      <c r="BB11" s="144"/>
-      <c r="BC11" s="145"/>
-      <c r="BD11" s="165"/>
-      <c r="BE11" s="166"/>
+      <c r="AO11" s="139"/>
+      <c r="AP11" s="45"/>
+      <c r="AQ11" s="140"/>
+      <c r="AR11" s="45"/>
+      <c r="AS11" s="141"/>
+      <c r="AT11" s="144"/>
+      <c r="AU11" s="145"/>
+      <c r="AV11" s="165"/>
+      <c r="AW11" s="166"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="128"/>
@@ -14355,23 +14226,15 @@
       <c r="AL12" s="136"/>
       <c r="AM12" s="137"/>
       <c r="AN12" s="16"/>
-      <c r="AO12" s="137"/>
-      <c r="AP12" s="138"/>
-      <c r="AQ12" s="137"/>
-      <c r="AR12" s="138"/>
-      <c r="AS12" s="139"/>
-      <c r="AT12" s="45"/>
-      <c r="AU12" s="140"/>
-      <c r="AV12" s="45"/>
-      <c r="AW12" s="141"/>
-      <c r="AX12" s="144"/>
-      <c r="AY12" s="145"/>
-      <c r="AZ12" s="144"/>
-      <c r="BA12" s="145"/>
-      <c r="BB12" s="144"/>
-      <c r="BC12" s="145"/>
-      <c r="BD12" s="165"/>
-      <c r="BE12" s="166"/>
+      <c r="AO12" s="139"/>
+      <c r="AP12" s="45"/>
+      <c r="AQ12" s="140"/>
+      <c r="AR12" s="45"/>
+      <c r="AS12" s="141"/>
+      <c r="AT12" s="144"/>
+      <c r="AU12" s="145"/>
+      <c r="AV12" s="165"/>
+      <c r="AW12" s="166"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="128"/>
@@ -14424,23 +14287,15 @@
       <c r="AL13" s="136"/>
       <c r="AM13" s="137"/>
       <c r="AN13" s="16"/>
-      <c r="AO13" s="137"/>
-      <c r="AP13" s="138"/>
-      <c r="AQ13" s="137"/>
-      <c r="AR13" s="138"/>
-      <c r="AS13" s="139"/>
-      <c r="AT13" s="45"/>
-      <c r="AU13" s="140"/>
-      <c r="AV13" s="45"/>
-      <c r="AW13" s="141"/>
-      <c r="AX13" s="144"/>
-      <c r="AY13" s="145"/>
-      <c r="AZ13" s="144"/>
-      <c r="BA13" s="145"/>
-      <c r="BB13" s="144"/>
-      <c r="BC13" s="145"/>
-      <c r="BD13" s="165"/>
-      <c r="BE13" s="166"/>
+      <c r="AO13" s="139"/>
+      <c r="AP13" s="45"/>
+      <c r="AQ13" s="140"/>
+      <c r="AR13" s="45"/>
+      <c r="AS13" s="141"/>
+      <c r="AT13" s="144"/>
+      <c r="AU13" s="145"/>
+      <c r="AV13" s="165"/>
+      <c r="AW13" s="166"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="128"/>
@@ -14491,23 +14346,15 @@
       <c r="AL14" s="136"/>
       <c r="AM14" s="137"/>
       <c r="AN14" s="16"/>
-      <c r="AO14" s="137"/>
-      <c r="AP14" s="138"/>
-      <c r="AQ14" s="137"/>
-      <c r="AR14" s="138"/>
-      <c r="AS14" s="139"/>
-      <c r="AT14" s="45"/>
-      <c r="AU14" s="140"/>
-      <c r="AV14" s="45"/>
-      <c r="AW14" s="141"/>
-      <c r="AX14" s="144"/>
-      <c r="AY14" s="145"/>
-      <c r="AZ14" s="144"/>
-      <c r="BA14" s="145"/>
-      <c r="BB14" s="144"/>
-      <c r="BC14" s="145"/>
-      <c r="BD14" s="165"/>
-      <c r="BE14" s="166"/>
+      <c r="AO14" s="139"/>
+      <c r="AP14" s="45"/>
+      <c r="AQ14" s="140"/>
+      <c r="AR14" s="45"/>
+      <c r="AS14" s="141"/>
+      <c r="AT14" s="144"/>
+      <c r="AU14" s="145"/>
+      <c r="AV14" s="165"/>
+      <c r="AW14" s="166"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="128"/>
@@ -14560,23 +14407,15 @@
       <c r="AL15" s="136"/>
       <c r="AM15" s="137"/>
       <c r="AN15" s="16"/>
-      <c r="AO15" s="137"/>
-      <c r="AP15" s="138"/>
-      <c r="AQ15" s="137"/>
-      <c r="AR15" s="138"/>
-      <c r="AS15" s="139"/>
-      <c r="AT15" s="45"/>
-      <c r="AU15" s="140"/>
-      <c r="AV15" s="45"/>
-      <c r="AW15" s="141"/>
-      <c r="AX15" s="144"/>
-      <c r="AY15" s="145"/>
-      <c r="AZ15" s="144"/>
-      <c r="BA15" s="145"/>
-      <c r="BB15" s="144"/>
-      <c r="BC15" s="145"/>
-      <c r="BD15" s="165"/>
-      <c r="BE15" s="166"/>
+      <c r="AO15" s="139"/>
+      <c r="AP15" s="45"/>
+      <c r="AQ15" s="140"/>
+      <c r="AR15" s="45"/>
+      <c r="AS15" s="141"/>
+      <c r="AT15" s="144"/>
+      <c r="AU15" s="145"/>
+      <c r="AV15" s="165"/>
+      <c r="AW15" s="166"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="128"/>
@@ -14631,23 +14470,15 @@
       <c r="AL16" s="136"/>
       <c r="AM16" s="137"/>
       <c r="AN16" s="16"/>
-      <c r="AO16" s="137"/>
-      <c r="AP16" s="138"/>
-      <c r="AQ16" s="137"/>
-      <c r="AR16" s="138"/>
-      <c r="AS16" s="139"/>
-      <c r="AT16" s="45"/>
-      <c r="AU16" s="140"/>
-      <c r="AV16" s="45"/>
-      <c r="AW16" s="141"/>
-      <c r="AX16" s="144"/>
-      <c r="AY16" s="145"/>
-      <c r="AZ16" s="144"/>
-      <c r="BA16" s="145"/>
-      <c r="BB16" s="144"/>
-      <c r="BC16" s="145"/>
-      <c r="BD16" s="165"/>
-      <c r="BE16" s="166"/>
+      <c r="AO16" s="139"/>
+      <c r="AP16" s="45"/>
+      <c r="AQ16" s="140"/>
+      <c r="AR16" s="45"/>
+      <c r="AS16" s="141"/>
+      <c r="AT16" s="144"/>
+      <c r="AU16" s="145"/>
+      <c r="AV16" s="165"/>
+      <c r="AW16" s="166"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="128"/>
@@ -14702,23 +14533,15 @@
       <c r="AL17" s="136"/>
       <c r="AM17" s="137"/>
       <c r="AN17" s="16"/>
-      <c r="AO17" s="137"/>
-      <c r="AP17" s="138"/>
-      <c r="AQ17" s="137"/>
-      <c r="AR17" s="138"/>
-      <c r="AS17" s="139"/>
-      <c r="AT17" s="45"/>
-      <c r="AU17" s="140"/>
-      <c r="AV17" s="45"/>
-      <c r="AW17" s="141"/>
-      <c r="AX17" s="144"/>
-      <c r="AY17" s="145"/>
-      <c r="AZ17" s="144"/>
-      <c r="BA17" s="145"/>
-      <c r="BB17" s="144"/>
-      <c r="BC17" s="145"/>
-      <c r="BD17" s="165"/>
-      <c r="BE17" s="166"/>
+      <c r="AO17" s="139"/>
+      <c r="AP17" s="45"/>
+      <c r="AQ17" s="140"/>
+      <c r="AR17" s="45"/>
+      <c r="AS17" s="141"/>
+      <c r="AT17" s="144"/>
+      <c r="AU17" s="145"/>
+      <c r="AV17" s="165"/>
+      <c r="AW17" s="166"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="128"/>
@@ -14771,23 +14594,15 @@
       <c r="AL18" s="136"/>
       <c r="AM18" s="137"/>
       <c r="AN18" s="16"/>
-      <c r="AO18" s="137"/>
-      <c r="AP18" s="138"/>
-      <c r="AQ18" s="137"/>
-      <c r="AR18" s="138"/>
-      <c r="AS18" s="139"/>
-      <c r="AT18" s="45"/>
-      <c r="AU18" s="140"/>
-      <c r="AV18" s="45"/>
-      <c r="AW18" s="141"/>
-      <c r="AX18" s="144"/>
-      <c r="AY18" s="145"/>
-      <c r="AZ18" s="144"/>
-      <c r="BA18" s="145"/>
-      <c r="BB18" s="144"/>
-      <c r="BC18" s="145"/>
-      <c r="BD18" s="165"/>
-      <c r="BE18" s="166"/>
+      <c r="AO18" s="139"/>
+      <c r="AP18" s="45"/>
+      <c r="AQ18" s="140"/>
+      <c r="AR18" s="45"/>
+      <c r="AS18" s="141"/>
+      <c r="AT18" s="144"/>
+      <c r="AU18" s="145"/>
+      <c r="AV18" s="165"/>
+      <c r="AW18" s="166"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="128"/>
@@ -14840,23 +14655,15 @@
       <c r="AN19" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="AO19" s="137"/>
-      <c r="AP19" s="138"/>
-      <c r="AQ19" s="137"/>
-      <c r="AR19" s="138"/>
-      <c r="AS19" s="139"/>
-      <c r="AT19" s="45"/>
-      <c r="AU19" s="140"/>
-      <c r="AV19" s="45"/>
-      <c r="AW19" s="141"/>
-      <c r="AX19" s="144"/>
-      <c r="AY19" s="145"/>
-      <c r="AZ19" s="144"/>
-      <c r="BA19" s="145"/>
-      <c r="BB19" s="144"/>
-      <c r="BC19" s="145"/>
-      <c r="BD19" s="165"/>
-      <c r="BE19" s="166"/>
+      <c r="AO19" s="139"/>
+      <c r="AP19" s="45"/>
+      <c r="AQ19" s="140"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="141"/>
+      <c r="AT19" s="144"/>
+      <c r="AU19" s="145"/>
+      <c r="AV19" s="165"/>
+      <c r="AW19" s="166"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="128"/>
@@ -14907,23 +14714,15 @@
       </c>
       <c r="AM20" s="137"/>
       <c r="AN20" s="16"/>
-      <c r="AO20" s="137"/>
-      <c r="AP20" s="138"/>
-      <c r="AQ20" s="137"/>
-      <c r="AR20" s="138"/>
-      <c r="AS20" s="139"/>
-      <c r="AT20" s="45"/>
-      <c r="AU20" s="140"/>
-      <c r="AV20" s="45"/>
-      <c r="AW20" s="141"/>
-      <c r="AX20" s="144"/>
-      <c r="AY20" s="145"/>
-      <c r="AZ20" s="144"/>
-      <c r="BA20" s="145"/>
-      <c r="BB20" s="144"/>
-      <c r="BC20" s="145"/>
-      <c r="BD20" s="165"/>
-      <c r="BE20" s="166"/>
+      <c r="AO20" s="139"/>
+      <c r="AP20" s="45"/>
+      <c r="AQ20" s="140"/>
+      <c r="AR20" s="45"/>
+      <c r="AS20" s="141"/>
+      <c r="AT20" s="144"/>
+      <c r="AU20" s="145"/>
+      <c r="AV20" s="165"/>
+      <c r="AW20" s="166"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="128"/>
@@ -14976,23 +14775,15 @@
       <c r="AL21" s="136"/>
       <c r="AM21" s="137"/>
       <c r="AN21" s="16"/>
-      <c r="AO21" s="137"/>
-      <c r="AP21" s="138"/>
-      <c r="AQ21" s="137"/>
-      <c r="AR21" s="138"/>
-      <c r="AS21" s="139"/>
-      <c r="AT21" s="45"/>
-      <c r="AU21" s="140"/>
-      <c r="AV21" s="45"/>
-      <c r="AW21" s="141"/>
-      <c r="AX21" s="144"/>
-      <c r="AY21" s="145"/>
-      <c r="AZ21" s="144"/>
-      <c r="BA21" s="145"/>
-      <c r="BB21" s="144"/>
-      <c r="BC21" s="145"/>
-      <c r="BD21" s="165"/>
-      <c r="BE21" s="166"/>
+      <c r="AO21" s="139"/>
+      <c r="AP21" s="45"/>
+      <c r="AQ21" s="140"/>
+      <c r="AR21" s="45"/>
+      <c r="AS21" s="141"/>
+      <c r="AT21" s="144"/>
+      <c r="AU21" s="145"/>
+      <c r="AV21" s="165"/>
+      <c r="AW21" s="166"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="128"/>
@@ -15047,23 +14838,15 @@
       <c r="AL22" s="136"/>
       <c r="AM22" s="137"/>
       <c r="AN22" s="16"/>
-      <c r="AO22" s="137"/>
-      <c r="AP22" s="138"/>
-      <c r="AQ22" s="137"/>
-      <c r="AR22" s="138"/>
-      <c r="AS22" s="139"/>
-      <c r="AT22" s="45"/>
-      <c r="AU22" s="140"/>
-      <c r="AV22" s="45"/>
-      <c r="AW22" s="141"/>
-      <c r="AX22" s="144"/>
-      <c r="AY22" s="145"/>
-      <c r="AZ22" s="144"/>
-      <c r="BA22" s="145"/>
-      <c r="BB22" s="144"/>
-      <c r="BC22" s="145"/>
-      <c r="BD22" s="165"/>
-      <c r="BE22" s="166"/>
+      <c r="AO22" s="139"/>
+      <c r="AP22" s="45"/>
+      <c r="AQ22" s="140"/>
+      <c r="AR22" s="45"/>
+      <c r="AS22" s="141"/>
+      <c r="AT22" s="144"/>
+      <c r="AU22" s="145"/>
+      <c r="AV22" s="165"/>
+      <c r="AW22" s="166"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="128"/>
@@ -15118,23 +14901,15 @@
       <c r="AL23" s="136"/>
       <c r="AM23" s="137"/>
       <c r="AN23" s="16"/>
-      <c r="AO23" s="137"/>
-      <c r="AP23" s="138"/>
-      <c r="AQ23" s="137"/>
-      <c r="AR23" s="138"/>
-      <c r="AS23" s="139"/>
-      <c r="AT23" s="45"/>
-      <c r="AU23" s="140"/>
-      <c r="AV23" s="45"/>
-      <c r="AW23" s="141"/>
-      <c r="AX23" s="144"/>
-      <c r="AY23" s="145"/>
-      <c r="AZ23" s="144"/>
-      <c r="BA23" s="145"/>
-      <c r="BB23" s="144"/>
-      <c r="BC23" s="145"/>
-      <c r="BD23" s="165"/>
-      <c r="BE23" s="166"/>
+      <c r="AO23" s="139"/>
+      <c r="AP23" s="45"/>
+      <c r="AQ23" s="140"/>
+      <c r="AR23" s="45"/>
+      <c r="AS23" s="141"/>
+      <c r="AT23" s="144"/>
+      <c r="AU23" s="145"/>
+      <c r="AV23" s="165"/>
+      <c r="AW23" s="166"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="128"/>
@@ -15187,23 +14962,15 @@
       <c r="AL24" s="136"/>
       <c r="AM24" s="137"/>
       <c r="AN24" s="16"/>
-      <c r="AO24" s="137"/>
-      <c r="AP24" s="138"/>
-      <c r="AQ24" s="137"/>
-      <c r="AR24" s="138"/>
-      <c r="AS24" s="139"/>
-      <c r="AT24" s="45"/>
-      <c r="AU24" s="140"/>
-      <c r="AV24" s="45"/>
-      <c r="AW24" s="141"/>
-      <c r="AX24" s="144"/>
-      <c r="AY24" s="145"/>
-      <c r="AZ24" s="144"/>
-      <c r="BA24" s="145"/>
-      <c r="BB24" s="144"/>
-      <c r="BC24" s="145"/>
-      <c r="BD24" s="165"/>
-      <c r="BE24" s="166"/>
+      <c r="AO24" s="139"/>
+      <c r="AP24" s="45"/>
+      <c r="AQ24" s="140"/>
+      <c r="AR24" s="45"/>
+      <c r="AS24" s="141"/>
+      <c r="AT24" s="144"/>
+      <c r="AU24" s="145"/>
+      <c r="AV24" s="165"/>
+      <c r="AW24" s="166"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="128"/>
@@ -15260,27 +15027,15 @@
       <c r="AN25" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="AO25" s="137" t="s">
-        <v>246</v>
-      </c>
-      <c r="AP25" s="138" t="s">
-        <v>247</v>
-      </c>
-      <c r="AQ25" s="137"/>
-      <c r="AR25" s="138"/>
-      <c r="AS25" s="139"/>
-      <c r="AT25" s="45"/>
-      <c r="AU25" s="140"/>
-      <c r="AV25" s="45"/>
-      <c r="AW25" s="141"/>
-      <c r="AX25" s="144"/>
-      <c r="AY25" s="145"/>
-      <c r="AZ25" s="144"/>
-      <c r="BA25" s="145"/>
-      <c r="BB25" s="144"/>
-      <c r="BC25" s="145"/>
-      <c r="BD25" s="165"/>
-      <c r="BE25" s="166"/>
+      <c r="AO25" s="139"/>
+      <c r="AP25" s="45"/>
+      <c r="AQ25" s="140"/>
+      <c r="AR25" s="45"/>
+      <c r="AS25" s="141"/>
+      <c r="AT25" s="144"/>
+      <c r="AU25" s="145"/>
+      <c r="AV25" s="165"/>
+      <c r="AW25" s="166"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="128"/>
@@ -15327,23 +15082,15 @@
       <c r="AL26" s="136"/>
       <c r="AM26" s="137"/>
       <c r="AN26" s="16"/>
-      <c r="AO26" s="137"/>
-      <c r="AP26" s="138"/>
-      <c r="AQ26" s="137"/>
-      <c r="AR26" s="138"/>
-      <c r="AS26" s="139"/>
-      <c r="AT26" s="45"/>
-      <c r="AU26" s="140"/>
-      <c r="AV26" s="45"/>
-      <c r="AW26" s="141"/>
-      <c r="AX26" s="144"/>
-      <c r="AY26" s="145"/>
-      <c r="AZ26" s="144"/>
-      <c r="BA26" s="145"/>
-      <c r="BB26" s="144"/>
-      <c r="BC26" s="145"/>
-      <c r="BD26" s="165"/>
-      <c r="BE26" s="166"/>
+      <c r="AO26" s="139"/>
+      <c r="AP26" s="45"/>
+      <c r="AQ26" s="140"/>
+      <c r="AR26" s="45"/>
+      <c r="AS26" s="141"/>
+      <c r="AT26" s="144"/>
+      <c r="AU26" s="145"/>
+      <c r="AV26" s="165"/>
+      <c r="AW26" s="166"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="128"/>
@@ -15377,7 +15124,7 @@
       <c r="Y27" s="155"/>
       <c r="Z27" s="135"/>
       <c r="AA27" s="135" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AB27" s="135"/>
       <c r="AC27" s="135"/>
@@ -15396,23 +15143,15 @@
       </c>
       <c r="AM27" s="137"/>
       <c r="AN27" s="16"/>
-      <c r="AO27" s="137"/>
-      <c r="AP27" s="138"/>
-      <c r="AQ27" s="137"/>
-      <c r="AR27" s="138"/>
-      <c r="AS27" s="139"/>
-      <c r="AT27" s="45"/>
-      <c r="AU27" s="140"/>
-      <c r="AV27" s="45"/>
-      <c r="AW27" s="141"/>
-      <c r="AX27" s="144"/>
-      <c r="AY27" s="145"/>
-      <c r="AZ27" s="144"/>
-      <c r="BA27" s="145"/>
-      <c r="BB27" s="144"/>
-      <c r="BC27" s="145"/>
-      <c r="BD27" s="165"/>
-      <c r="BE27" s="166"/>
+      <c r="AO27" s="139"/>
+      <c r="AP27" s="45"/>
+      <c r="AQ27" s="140"/>
+      <c r="AR27" s="45"/>
+      <c r="AS27" s="141"/>
+      <c r="AT27" s="144"/>
+      <c r="AU27" s="145"/>
+      <c r="AV27" s="165"/>
+      <c r="AW27" s="166"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="128"/>
@@ -15459,23 +15198,15 @@
       <c r="AL28" s="136"/>
       <c r="AM28" s="137"/>
       <c r="AN28" s="16"/>
-      <c r="AO28" s="137"/>
-      <c r="AP28" s="138"/>
-      <c r="AQ28" s="137"/>
-      <c r="AR28" s="138"/>
-      <c r="AS28" s="139"/>
-      <c r="AT28" s="45"/>
-      <c r="AU28" s="140"/>
-      <c r="AV28" s="45"/>
-      <c r="AW28" s="141"/>
-      <c r="AX28" s="144"/>
-      <c r="AY28" s="145"/>
-      <c r="AZ28" s="144"/>
-      <c r="BA28" s="145"/>
-      <c r="BB28" s="144"/>
-      <c r="BC28" s="145"/>
-      <c r="BD28" s="165"/>
-      <c r="BE28" s="166"/>
+      <c r="AO28" s="139"/>
+      <c r="AP28" s="45"/>
+      <c r="AQ28" s="140"/>
+      <c r="AR28" s="45"/>
+      <c r="AS28" s="141"/>
+      <c r="AT28" s="144"/>
+      <c r="AU28" s="145"/>
+      <c r="AV28" s="165"/>
+      <c r="AW28" s="166"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="123"/>
@@ -15565,34 +15296,26 @@
       <c r="AO29" s="123"/>
       <c r="AP29" s="123"/>
       <c r="AQ29" s="123"/>
-      <c r="AR29" s="123"/>
-      <c r="AS29" s="123"/>
-      <c r="AT29" s="123"/>
-      <c r="AU29" s="123"/>
+      <c r="AR29" s="162"/>
+      <c r="AS29" s="163"/>
+      <c r="AT29" s="163"/>
+      <c r="AU29" s="163"/>
       <c r="AV29" s="162"/>
-      <c r="AW29" s="163"/>
-      <c r="AX29" s="163"/>
-      <c r="AY29" s="163"/>
-      <c r="AZ29" s="163"/>
-      <c r="BA29" s="163"/>
-      <c r="BB29" s="163"/>
-      <c r="BC29" s="163"/>
-      <c r="BD29" s="162"/>
-      <c r="BE29" s="162"/>
+      <c r="AW29" s="162"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AB36" s="164"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="38">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:T1"/>
     <mergeCell ref="U1:Y1"/>
     <mergeCell ref="Z1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="AS1:AV1"/>
-    <mergeCell ref="AX1:BC1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="AT1:AU1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -15600,11 +15323,10 @@
     <mergeCell ref="E2:T2"/>
     <mergeCell ref="U2:Y2"/>
     <mergeCell ref="Z2:AL2"/>
-    <mergeCell ref="AM2:AR2"/>
-    <mergeCell ref="AS2:AV2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="AT2:AT4"/>
+    <mergeCell ref="AU2:AU4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:P4"/>
     <mergeCell ref="Q3:Q4"/>
@@ -15617,16 +15339,13 @@
     <mergeCell ref="Y3:Y4"/>
     <mergeCell ref="Z3:AJ4"/>
     <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AV3"/>
-    <mergeCell ref="AX3:AX4"/>
-    <mergeCell ref="AY3:AY4"/>
-    <mergeCell ref="AZ3:AZ4"/>
-    <mergeCell ref="BA3:BA4"/>
-    <mergeCell ref="BB3:BB4"/>
-    <mergeCell ref="BC3:BC4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AS3:AS4"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -15646,7 +15365,7 @@
   <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M27" activeCellId="0" sqref="M27"/>
+      <selection pane="topLeft" activeCell="M27" activeCellId="1" sqref="AU2:AU4 M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15875,7 +15594,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="125" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C5" s="126"/>
       <c r="D5" s="126"/>
@@ -15919,7 +15638,7 @@
         <v>150</v>
       </c>
       <c r="F6" s="130" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G6" s="131"/>
       <c r="H6" s="131"/>
@@ -15939,7 +15658,7 @@
       </c>
       <c r="S6" s="86"/>
       <c r="T6" s="155" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="U6" s="155"/>
       <c r="V6" s="141"/>
@@ -15965,7 +15684,7 @@
         <v>150</v>
       </c>
       <c r="F7" s="130" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G7" s="131"/>
       <c r="H7" s="131"/>
@@ -15981,11 +15700,11 @@
       <c r="P7" s="83"/>
       <c r="Q7" s="132"/>
       <c r="R7" s="133" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="S7" s="86"/>
       <c r="T7" s="155" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="U7" s="155"/>
       <c r="V7" s="141"/>
